--- a/Verificacao qualidade segmentacao FS Zika e CCD.xlsx
+++ b/Verificacao qualidade segmentacao FS Zika e CCD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CorticalFolding_AD_Aging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70924DE-08BE-496C-809A-BAF50D3EBC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B6D3D-7878-4726-9399-E433065CC85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'AD - IDOR ses 1 long'!$A$1:$K$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CCD - IDOR'!$A$1:$H$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ZK!$A$1:$I$21</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">ZK!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ZK!$G$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ZK!$G$2:$G$21</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">ZK!$G$2:$G$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ZK!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">ZK!$G$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">ZK!$G$2:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="269">
   <si>
     <t>Sementacoes ZIKA: Z:\PRJ1604_ZK_NEONATO\03_PROCS\PREPROC_DATA\VOLUMETRIA\FREESURFER\freesurfer_7\T1W_T2W\MR2</t>
   </si>
@@ -484,9 +484,6 @@
   </si>
   <si>
     <t>CONTROLE</t>
-  </si>
-  <si>
-    <t>brainmask incluindo parte da dura e/ou cerebelo</t>
   </si>
   <si>
     <t>yes</t>
@@ -1188,7 +1185,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1229,10 +1226,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1242,7 +1239,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{36B28107-789F-49EA-8EAB-7E690CC742D4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Média</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6809,8 +6806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4280CF82-8AFE-4DED-9362-7E105AADCB54}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133:K133"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6832,7 +6829,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>134</v>
@@ -6841,7 +6838,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>18</v>
@@ -6887,13 +6884,13 @@
         <v>#N/A</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6907,7 +6904,7 @@
         <v>139</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
@@ -6921,13 +6918,13 @@
         <v>sim</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6941,7 +6938,7 @@
         <v>139</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
@@ -6956,18 +6953,18 @@
         <v>#N/A</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>138</v>
@@ -6990,13 +6987,13 @@
         <v>#N/A</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7010,7 +7007,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -7025,13 +7022,13 @@
         <v>sim</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7060,27 +7057,27 @@
         <v>sim</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
@@ -7095,18 +7092,18 @@
         <v>#N/A</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>138</v>
@@ -7115,7 +7112,7 @@
         <v>139</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
@@ -7130,18 +7127,18 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>138</v>
@@ -7150,7 +7147,7 @@
         <v>139</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
@@ -7165,18 +7162,18 @@
         <v>#N/A</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>138</v>
@@ -7185,7 +7182,7 @@
         <v>139</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="28">
         <v>1</v>
@@ -7199,18 +7196,18 @@
         <v>#N/A</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>138</v>
@@ -7219,7 +7216,7 @@
         <v>139</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
@@ -7233,13 +7230,13 @@
         <v>#N/A</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7253,7 +7250,7 @@
         <v>139</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -7268,13 +7265,13 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7288,7 +7285,7 @@
         <v>139</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -7302,18 +7299,18 @@
         <v>#N/A</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>138</v>
@@ -7322,7 +7319,7 @@
         <v>139</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="28">
         <v>1</v>
@@ -7336,18 +7333,18 @@
         <v>#N/A</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>138</v>
@@ -7370,13 +7367,13 @@
         <v>#N/A</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7390,7 +7387,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -7405,18 +7402,18 @@
         <v>sim</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>138</v>
@@ -7439,13 +7436,13 @@
         <v>#N/A</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7474,18 +7471,18 @@
         <v>#N/A</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>138</v>
@@ -7494,7 +7491,7 @@
         <v>139</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -7504,18 +7501,18 @@
         <v>1</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>138</v>
@@ -7524,7 +7521,7 @@
         <v>139</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -7534,18 +7531,18 @@
         <v>1</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>138</v>
@@ -7554,7 +7551,7 @@
         <v>139</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -7564,18 +7561,18 @@
         <v>1</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>138</v>
@@ -7594,18 +7591,18 @@
         <v>1</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>138</v>
@@ -7614,7 +7611,7 @@
         <v>139</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="29">
         <v>1</v>
@@ -7624,18 +7621,18 @@
         <v>1</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>138</v>
@@ -7644,7 +7641,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
@@ -7654,18 +7651,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>138</v>
@@ -7684,18 +7681,18 @@
         <v>1</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>138</v>
@@ -7714,18 +7711,18 @@
         <v>1</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>138</v>
@@ -7744,18 +7741,18 @@
         <v>1</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>138</v>
@@ -7764,7 +7761,7 @@
         <v>139</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29" s="28">
         <v>1</v>
@@ -7774,18 +7771,18 @@
         <v>1</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>138</v>
@@ -7804,13 +7801,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7834,13 +7831,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7864,18 +7861,18 @@
         <v>1</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>138</v>
@@ -7894,18 +7891,18 @@
         <v>1</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>138</v>
@@ -7924,18 +7921,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>138</v>
@@ -7954,13 +7951,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -7984,18 +7981,18 @@
         <v>1</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>138</v>
@@ -8014,18 +8011,18 @@
         <v>1</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>138</v>
@@ -8034,7 +8031,7 @@
         <v>139</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="28">
         <v>1</v>
@@ -8044,18 +8041,18 @@
         <v>1</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>138</v>
@@ -8064,7 +8061,7 @@
         <v>139</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="28">
         <v>1</v>
@@ -8074,18 +8071,18 @@
         <v>1</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>138</v>
@@ -8094,7 +8091,7 @@
         <v>139</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" s="28">
         <v>1</v>
@@ -8104,18 +8101,18 @@
         <v>1</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>138</v>
@@ -8134,18 +8131,18 @@
         <v>1</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>138</v>
@@ -8154,7 +8151,7 @@
         <v>139</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="28">
         <v>1</v>
@@ -8164,18 +8161,18 @@
         <v>1</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>138</v>
@@ -8194,18 +8191,18 @@
         <v>1</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>138</v>
@@ -8224,18 +8221,18 @@
         <v>1</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>138</v>
@@ -8254,18 +8251,18 @@
         <v>1</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J45" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>138</v>
@@ -8284,18 +8281,18 @@
         <v>1</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>138</v>
@@ -8304,7 +8301,7 @@
         <v>139</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="28">
         <v>1</v>
@@ -8314,18 +8311,18 @@
         <v>1</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>138</v>
@@ -8344,18 +8341,18 @@
         <v>1</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>138</v>
@@ -8364,7 +8361,7 @@
         <v>139</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="28">
         <v>1</v>
@@ -8374,18 +8371,18 @@
         <v>1</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>138</v>
@@ -8404,18 +8401,18 @@
         <v>1</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>138</v>
@@ -8424,7 +8421,7 @@
         <v>139</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="28">
         <v>1</v>
@@ -8434,18 +8431,18 @@
         <v>1</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>138</v>
@@ -8454,7 +8451,7 @@
         <v>139</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E52" s="28">
         <v>1</v>
@@ -8464,18 +8461,18 @@
         <v>1</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J52" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>138</v>
@@ -8484,7 +8481,7 @@
         <v>139</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="28">
         <v>1</v>
@@ -8494,18 +8491,18 @@
         <v>1</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J53" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>138</v>
@@ -8524,18 +8521,18 @@
         <v>1</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>138</v>
@@ -8554,18 +8551,18 @@
         <v>1</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>138</v>
@@ -8574,7 +8571,7 @@
         <v>139</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" s="28">
         <v>1</v>
@@ -8584,18 +8581,18 @@
         <v>1</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>138</v>
@@ -8614,18 +8611,18 @@
         <v>1</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J57" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>138</v>
@@ -8644,18 +8641,18 @@
         <v>1</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J58" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>138</v>
@@ -8664,7 +8661,7 @@
         <v>139</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="28">
         <v>1</v>
@@ -8674,18 +8671,18 @@
         <v>1</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J59" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>138</v>
@@ -8704,18 +8701,18 @@
         <v>1</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>138</v>
@@ -8724,7 +8721,7 @@
         <v>139</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61" s="28">
         <v>1</v>
@@ -8734,18 +8731,18 @@
         <v>1</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K61" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>138</v>
@@ -8754,7 +8751,7 @@
         <v>139</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" s="28">
         <v>1</v>
@@ -8764,18 +8761,18 @@
         <v>1</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>138</v>
@@ -8794,18 +8791,18 @@
         <v>1</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J63" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>138</v>
@@ -8814,7 +8811,7 @@
         <v>139</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="28">
         <v>1</v>
@@ -8824,18 +8821,18 @@
         <v>1</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J64" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>138</v>
@@ -8854,18 +8851,18 @@
         <v>1</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J65" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K65" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>138</v>
@@ -8884,18 +8881,18 @@
         <v>1</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J66" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>138</v>
@@ -8914,18 +8911,18 @@
         <v>1</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>138</v>
@@ -8934,7 +8931,7 @@
         <v>139</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68" s="28">
         <v>1</v>
@@ -8944,18 +8941,18 @@
         <v>1</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J68" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>138</v>
@@ -8974,13 +8971,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -8994,7 +8991,7 @@
         <v>139</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70" s="28">
         <v>1</v>
@@ -9004,18 +9001,18 @@
         <v>1</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J70" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>138</v>
@@ -9034,18 +9031,18 @@
         <v>1</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>138</v>
@@ -9064,18 +9061,18 @@
         <v>1</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K72" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>138</v>
@@ -9094,18 +9091,18 @@
         <v>1</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K73" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>138</v>
@@ -9124,18 +9121,18 @@
         <v>2</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>138</v>
@@ -9144,7 +9141,7 @@
         <v>139</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75" s="28">
         <v>1</v>
@@ -9154,18 +9151,18 @@
         <v>1</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>138</v>
@@ -9174,7 +9171,7 @@
         <v>139</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" s="28">
         <v>1</v>
@@ -9184,18 +9181,18 @@
         <v>1</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J76" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>138</v>
@@ -9214,18 +9211,18 @@
         <v>1</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K77" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>138</v>
@@ -9234,7 +9231,7 @@
         <v>139</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="28">
         <v>0</v>
@@ -9244,18 +9241,18 @@
         <v>0</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>138</v>
@@ -9274,18 +9271,18 @@
         <v>1</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K79" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>138</v>
@@ -9294,7 +9291,7 @@
         <v>139</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80" s="28">
         <v>1</v>
@@ -9304,18 +9301,18 @@
         <v>1</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J80" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>138</v>
@@ -9334,18 +9331,18 @@
         <v>1</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K81" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>138</v>
@@ -9364,18 +9361,18 @@
         <v>1</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K82" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>138</v>
@@ -9394,18 +9391,18 @@
         <v>1</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K83" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>138</v>
@@ -9424,18 +9421,18 @@
         <v>1</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>138</v>
@@ -9454,18 +9451,18 @@
         <v>1</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J85" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>138</v>
@@ -9484,18 +9481,18 @@
         <v>1</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="28" t="s">
         <v>138</v>
@@ -9504,7 +9501,7 @@
         <v>139</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87" s="28">
         <v>1</v>
@@ -9514,18 +9511,18 @@
         <v>1</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J87" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>138</v>
@@ -9544,18 +9541,18 @@
         <v>1</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J88" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K88" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>138</v>
@@ -9574,18 +9571,18 @@
         <v>1</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J89" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K89" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>138</v>
@@ -9604,18 +9601,18 @@
         <v>1</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J90" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>138</v>
@@ -9634,18 +9631,18 @@
         <v>1</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J91" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K91" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>138</v>
@@ -9664,18 +9661,18 @@
         <v>1</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J92" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K92" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>138</v>
@@ -9694,18 +9691,18 @@
         <v>1</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J93" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K93" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>138</v>
@@ -9714,7 +9711,7 @@
         <v>139</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" s="28">
         <v>1</v>
@@ -9724,18 +9721,18 @@
         <v>1</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J94" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K94" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>138</v>
@@ -9754,18 +9751,18 @@
         <v>1</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>138</v>
@@ -9784,18 +9781,18 @@
         <v>1</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J96" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>138</v>
@@ -9814,18 +9811,18 @@
         <v>1</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J97" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>138</v>
@@ -9844,18 +9841,18 @@
         <v>1</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>138</v>
@@ -9874,18 +9871,18 @@
         <v>1</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J99" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>138</v>
@@ -9904,18 +9901,18 @@
         <v>1</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>138</v>
@@ -9934,18 +9931,18 @@
         <v>1</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J101" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>138</v>
@@ -9964,18 +9961,18 @@
         <v>1</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J102" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B103" s="28" t="s">
         <v>138</v>
@@ -9994,18 +9991,18 @@
         <v>1</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J103" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K103" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>138</v>
@@ -10024,18 +10021,18 @@
         <v>1</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J104" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K104" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>138</v>
@@ -10054,18 +10051,18 @@
         <v>1</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>138</v>
@@ -10074,7 +10071,7 @@
         <v>139</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" s="28">
         <v>1</v>
@@ -10084,18 +10081,18 @@
         <v>1</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>138</v>
@@ -10114,18 +10111,18 @@
         <v>1</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>138</v>
@@ -10144,18 +10141,18 @@
         <v>1</v>
       </c>
       <c r="I108" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K108" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>138</v>
@@ -10174,18 +10171,18 @@
         <v>1</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J109" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K109" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>138</v>
@@ -10204,18 +10201,18 @@
         <v>1</v>
       </c>
       <c r="I110" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K110" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>138</v>
@@ -10234,18 +10231,18 @@
         <v>1</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K111" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>138</v>
@@ -10254,7 +10251,7 @@
         <v>139</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E112" s="28">
         <v>0</v>
@@ -10264,18 +10261,18 @@
         <v>0</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K112" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>138</v>
@@ -10294,18 +10291,18 @@
         <v>1</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K113" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>138</v>
@@ -10324,18 +10321,18 @@
         <v>1</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J114" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K114" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>138</v>
@@ -10354,18 +10351,18 @@
         <v>1</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J115" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K115" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>138</v>
@@ -10374,7 +10371,7 @@
         <v>139</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116" s="28">
         <v>1</v>
@@ -10384,18 +10381,18 @@
         <v>1</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J116" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K116" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B117" s="28" t="s">
         <v>138</v>
@@ -10404,7 +10401,7 @@
         <v>139</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E117" s="28">
         <v>1</v>
@@ -10414,18 +10411,18 @@
         <v>1</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J117" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K117" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>138</v>
@@ -10444,18 +10441,18 @@
         <v>1</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J118" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K118" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>138</v>
@@ -10464,7 +10461,7 @@
         <v>139</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E119" s="28">
         <v>1</v>
@@ -10474,18 +10471,18 @@
         <v>1</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J119" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K119" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B120" s="28" t="s">
         <v>138</v>
@@ -10504,18 +10501,18 @@
         <v>1</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J120" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K120" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B121" s="28" t="s">
         <v>138</v>
@@ -10534,18 +10531,18 @@
         <v>1</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K121" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" s="28" t="s">
         <v>138</v>
@@ -10554,7 +10551,7 @@
         <v>139</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E122" s="28">
         <v>1</v>
@@ -10564,18 +10561,18 @@
         <v>1</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K122" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" s="28" t="s">
         <v>138</v>
@@ -10594,18 +10591,18 @@
         <v>1</v>
       </c>
       <c r="I123" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K123" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" s="28" t="s">
         <v>138</v>
@@ -10614,7 +10611,7 @@
         <v>139</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E124" s="28">
         <v>1</v>
@@ -10624,18 +10621,18 @@
         <v>1</v>
       </c>
       <c r="I124" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J124" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K124" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125" s="28" t="s">
         <v>138</v>
@@ -10644,7 +10641,7 @@
         <v>139</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E125" s="28">
         <v>1</v>
@@ -10654,18 +10651,18 @@
         <v>1</v>
       </c>
       <c r="I125" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K125" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B126" s="28" t="s">
         <v>138</v>
@@ -10674,7 +10671,7 @@
         <v>139</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E126" s="28">
         <v>1</v>
@@ -10684,18 +10681,18 @@
         <v>1</v>
       </c>
       <c r="I126" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J126" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K126" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" s="28" t="s">
         <v>138</v>
@@ -10704,7 +10701,7 @@
         <v>139</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E127" s="28">
         <v>1</v>
@@ -10714,18 +10711,18 @@
         <v>1</v>
       </c>
       <c r="I127" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J127" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K127" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128" s="28" t="s">
         <v>138</v>
@@ -10744,18 +10741,18 @@
         <v>1</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J128" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K128" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" s="28" t="s">
         <v>138</v>
@@ -10764,7 +10761,7 @@
         <v>139</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E129" s="28">
         <v>1</v>
@@ -10774,18 +10771,18 @@
         <v>1</v>
       </c>
       <c r="I129" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J129" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K129" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B130" s="28" t="s">
         <v>138</v>
@@ -10804,18 +10801,18 @@
         <v>1</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J130" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K130" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B131" s="28" t="s">
         <v>138</v>
@@ -10834,18 +10831,18 @@
         <v>1</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J131" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K131" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>138</v>
@@ -10854,7 +10851,7 @@
         <v>139</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E132" s="28">
         <v>1</v>
@@ -10864,18 +10861,18 @@
         <v>1</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J132" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K132" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B133" s="28" t="s">
         <v>138</v>
@@ -10893,13 +10890,13 @@
         <v>1</v>
       </c>
       <c r="I133" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J133" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K133" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
